--- a/INDIVIDUAL_ARGUMENTS/abortion_contra.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/abortion_contra.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="129" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>#id</t>
   </si>
@@ -26,202 +25,307 @@
     <t>There is only one situation in which I believe abortion is okay.  If a mother is incapable of giving birth to the child, and attempting it might kill her, I believe abortion is sad, but necessary.  Otherwise, no one has the right to kill a child, born or unborn.</t>
   </si>
   <si>
+    <t>262,0.33,12.63,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.04,0.1</t>
+  </si>
+  <si>
     <t>for everyone who is talking about RAPE in this subject let me ask you one thing!!!! if you got in a huge fight with someone and ended up breaking your hand or arm... would you cut it off just because it would REMIND you of that expirience???  if your actualy SANE you would say no and if you say yes you need to see a Physiatrist!!!!</t>
   </si>
   <si>
+    <t>333,0.25,10.74,0.0,0.05,3.5,0.0,0.05,0.0,0.0,0.05,0.05,0.04,0.0</t>
+  </si>
+  <si>
     <t>The government has no place to tell a woman what she can do with her own body, ever."  The government DOES have that right.  1) a woman cannot legally prostitute herself in many states  2) a woman cannot take illicit drugs into her own body  3) a woman cannot use her body to murder others  4) a woman cannot use her body to steal  5) a woman cannot display her naked body in public  there are many others. Men can also not do these things.  The government tells us what to do with our bodies ALL THE TIME. This is no different.</t>
   </si>
   <si>
+    <t>528,0.17,11.4,0.0,0.0,1.0,0.0,0.09,0.0,0.25,0.2,0.2,0.08,0.0</t>
+  </si>
+  <si>
     <t>13276</t>
   </si>
   <si>
     <t>we did not create the baby, we are not the ones who gave it life, why should we be the ones who put it to death, we have no authority to do such a thing.</t>
   </si>
   <si>
+    <t>153,0.0,8.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>13269</t>
   </si>
   <si>
     <t>is personhood absolute or is it predicated upon position?  If a premature baby is lying in an incubator or, let's say for the sake of argument, a 5 gallon pail, it is illegal to kill it. Why does the situation change so drastically just because the child is inside the womb?</t>
   </si>
   <si>
+    <t>274,0.33,13.35,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.19,0.2</t>
+  </si>
+  <si>
     <t>59260</t>
   </si>
   <si>
     <t>when people condemned consensual-cannibalism in africa, did they think of these people's right to their bodies? no. why should abortion be any different?</t>
   </si>
   <si>
+    <t>153,0.0,13.31,0.0,0.04,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.04,0.0</t>
+  </si>
+  <si>
     <t>30426</t>
   </si>
   <si>
     <t>if a woman gets raped and is left with the chil, she should put it up for adoption. if someone murders a pregnant women, they get charged for killing the woman and the fetus. People have the stupid excuss that it's not a baby, it's a fetus. if you look it up in the dictionary, it says that a fetus is an unborn baby.</t>
   </si>
   <si>
+    <t>317,0.0,10.37,1.0,0.08,1.0,0.0,0.0,0.0,0.3,0.55,0.55,0.0,0.0</t>
+  </si>
+  <si>
     <t>13263</t>
   </si>
   <si>
     <t>Not to be glib, but are you stating that we should look to the government to assist us with our belief system.  Ever read T. Hobbes...?</t>
   </si>
   <si>
+    <t>135,0.5,11.23,0.0,0.0,3.0,0.0,0.04,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>28923</t>
   </si>
   <si>
     <t>If someone is raped and ends up pregnant, they should have the choice to get an abortion or not. If people are being irresponsible and have unprotected sex, they should be held accountable for their actions. Have the baby and put them up for adoption. Otherwise people are going to abuse their power to chose and will be killing babies because they are too lazy or ignorant to use protection.</t>
   </si>
   <si>
+    <t>392,0.25,14.93,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.45,0.4,0.08,0.2</t>
+  </si>
+  <si>
     <t>13268</t>
   </si>
   <si>
     <t>I argue for the rights of the child, who deserves the same right to life as the mother.</t>
   </si>
   <si>
+    <t>87,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>54474</t>
   </si>
   <si>
     <t>A growing embryo is considered human with the heartbeats initiating as early as 21st day of conception. So what if we cannot see the human form, it does have the potential to gain one.  Around 60% of abortions are performed on never married women. Why can't women give the baby up for adoption instead, even if she is raped. If your raped does that give you the right to got out and kill someone?</t>
   </si>
   <si>
+    <t>396,0.0,12.54,0.0,0.0,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.08,0.0</t>
+  </si>
+  <si>
     <t>13277</t>
   </si>
   <si>
     <t>the one whom bestows life, is the one whom bestows death.</t>
   </si>
   <si>
+    <t>57,0.0,10.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.04,0.1</t>
+  </si>
+  <si>
     <t>76937</t>
   </si>
   <si>
     <t>I choose life. Keeping the law pro-choice is allowing women to murder their own unborn human child.</t>
   </si>
   <si>
+    <t>99,0.0,12.1,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>13300</t>
   </si>
   <si>
     <t>I'm pro-life based on one major fact.... abortion being used the way it is today.. like a last minute form of birth control. If your too stupid to wear protection, get on the pill, just give the baby up, there are thousands of people who can't have children who'd love to have it.</t>
   </si>
   <si>
+    <t>280,0.0,11.52,1.0,0.02,4.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>13258</t>
   </si>
   <si>
     <t>That situation is very rare and can usually be countered with a contraceptive drug if the woman seeks medical attention after the assault.</t>
   </si>
   <si>
+    <t>138,0.0,17.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.04,0.0</t>
+  </si>
+  <si>
     <t>13256</t>
   </si>
   <si>
     <t>I choose life.  Reagan once said something like this.  Notice that everyone who is pro choice has been born.</t>
   </si>
   <si>
+    <t>108,0.0,11.4,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.04,0.0</t>
+  </si>
+  <si>
     <t>54558</t>
   </si>
   <si>
     <t>No matter what circumstance a woman is in SHE got herself pregnant! When rape occurs why is it the poor, defenceless baby who gets no choice and dies? The baby is innocent, yes it wasnt the mothers fault but why is she more important than a child?  Women have become selfish where there bodies are concerned. They believe they have the right to get pregnant and then get rid of the baby because they feel like it and made a mistake. These are childrens lives we are talking about.</t>
   </si>
   <si>
+    <t>480,0.33,13.32,0.0,0.02,1.0,0.0,0.01,0.0,0.25,0.45,0.45,0.08,0.1</t>
+  </si>
+  <si>
     <t>34503</t>
   </si>
   <si>
     <t>having some choices are good. but if you were in charge of all the choices in your life, the world would be in total chaos. i have always been pro life. and yes i do believe abortions should be illegal.</t>
   </si>
   <si>
+    <t>202,0.25,10.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>13264</t>
   </si>
   <si>
     <t>Don't kid yourself: the vast majority of abortions in this country are for reasons of convenience. If I was allowed to kill someone anytime they were inconvenient to me, I would be leaving a trail of bodies behind me when I walked down the street.</t>
   </si>
   <si>
+    <t>247,0.0,14.24,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.04,0.0</t>
+  </si>
+  <si>
     <t>13260</t>
   </si>
   <si>
     <t>There are tons of ways to not get pregnant. There are condoms (99% effective) for men and women, there are morning-after pills (75% effective), the patch, pill, and other forms of ways not to get pregnant. It's the woman's fault that she didn't do it.  And maybe instead of Pro-choice vs. Pro-life, they (i don't know who "they" is) should have pro-life, but with exceptions (i.e. women that get raped) so that it's fair all-around.</t>
   </si>
   <si>
+    <t>432,0.2,11.18,0.0,0.09,1.4,0.0,0.03,0.0,0.15,0.15,0.15,0.04,0.0</t>
+  </si>
+  <si>
     <t>80248</t>
   </si>
   <si>
     <t>I am Pro-Life,  Here is a question for anyone who is Pro-Choice: Is the baby in the mother's stomach living and if not how do you know?</t>
   </si>
   <si>
+    <t>135,0.0,8.65,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>13259</t>
   </si>
   <si>
     <t>Nobody has the right to tell you what to do with your body, but if that which you are trying to rid off moves away at the first sign of pain, without you feeling it, then "that" is no longer yours, since it feels outside your own.</t>
   </si>
   <si>
+    <t>230,1.0,11.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>13280</t>
   </si>
   <si>
     <t>i do not see any difference in killing an embroyo or a 40 year old person. Murder....is murder.</t>
   </si>
   <si>
+    <t>95,0.0,9.77,0.0,0.11,3.0,0.0,0.06,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>75146</t>
   </si>
   <si>
     <t>what we are dealing with is indirect murder if a women decides to abort a child she just had killed a life that may have been a big contribution to society.</t>
   </si>
   <si>
+    <t>156,0.0,12.64,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>1148434436</t>
   </si>
   <si>
     <t>What i dont undertsand is how people rationalize taking life it just doesnt make any sense... idc the situation in america how is killing leagal?</t>
   </si>
   <si>
+    <t>145,0.0,16.18,0.0,0.2,4.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>75040</t>
   </si>
   <si>
     <t>My one question...  Why is it we argue for the "right" to kill the unborn when the government is taking away our real rights?</t>
   </si>
   <si>
+    <t>125,0.0,11.88,0.0,0.0,4.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>13279</t>
   </si>
   <si>
     <t>In Nebraska, it's legal to have an abortion by killing the baby while it's coming out of the womb. How can you argue against that?</t>
   </si>
   <si>
+    <t>130,0.0,10.76,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>33181</t>
   </si>
   <si>
     <t>One word: Adoption  There is absolutley no reason to receive an abortion when you could continue through to birth and then put the child up for adoption.  This is a commonly ignored fact in the abortion debate. But I think it is by far the best choice.</t>
   </si>
   <si>
+    <t>252,0.33,13.09,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>13270</t>
   </si>
   <si>
     <t>If a women is raped" is a good argument. However why would you punish an innocent baby with the death penalty for some other man's crime. If the women does not want the child she could give it up for adoption. I just dont understand why you would kill the baby, the emotional trauma would happen without the baby as well.</t>
   </si>
   <si>
+    <t>321,0.25,12.43,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>34485</t>
   </si>
   <si>
     <t>there isnt an excuse in the world to kill a fetus, a baby, a child, anyone.  if the woman was raped, it most certainly is Not the baby's fault. the woman with the baby whoever they are should speak For the baby, and know that the baby would want to live.</t>
   </si>
   <si>
+    <t>254,0.0,10.47,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>13267</t>
   </si>
   <si>
     <t>You are mixing topics thereby creating fallacy in your argument. The debate is not to determine under what circumstances may murder be morally acceptable, rather, the legal (some may say moral) foundation on which one can state that an individual has the right to terminate pregnancy.  In addition, you may want to brush up on your etymology and vary your sources rather than simply paraphrasing definitions that fit your point of view.</t>
   </si>
   <si>
+    <t>436,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.12,0.3</t>
+  </si>
+  <si>
     <t>30319</t>
   </si>
   <si>
     <t>Statistics prove that less than 1% of women who are raped get pregnant because of the adrenalin rush. We have no right to take an unborn child's life. There are ways to avoid the situation of abortion. The woman can have the baby and give it up for adoption or raise it as their own because the woman is the still the child's biological mother. There are thousands of people on the waiting list for another baby to add to their family. DO NOT let anyone tell you otherwise because they obviously havn't been in the situation of adoption or abortion.</t>
   </si>
   <si>
+    <t>549,0.5,13.76,0.0,0.01,1.0,0.0,0.03,0.0,0.45,0.65,0.65,0.04,0.0</t>
+  </si>
+  <si>
     <t>13303</t>
   </si>
   <si>
     <t>There should be no argument in this really...whatever way yu see a fetus...its still a living form that has been created in a very intimate way... you shouldn't be changing what mothernature or God or fate or whatever has decided for you...and if you didn;t wannna get preggo in the first place...don't have sex or use protection.  Yeh there are some women that get raped and it's very unfortunate but they should give the child up for adoption. It's not the child's fault that it was created. So why should the goring being have to pay the ultimate price of it's life?</t>
   </si>
   <si>
+    <t>569,0.25,12.71,0.0,0.1,4.75,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>13257</t>
   </si>
   <si>
     <t>Actually the government does tell women what they can and can't do with their bodies.  It's illegal to commit suicide.  If a person is caught trying to hack themselves to peices they could be placed in a mental institute.  So the government actually does limit what a woman can do with her body</t>
   </si>
   <si>
+    <t>294,0.0,13.36,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>59722</t>
   </si>
   <si>
     <t>Well "The Champ" It is not the Woman's body we are talking about, it is a new life. And if you are going to be irresponsible dont let a new life die for it!</t>
+  </si>
+  <si>
+    <t>156,0.0,8.23,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.04,0.1</t>
   </si>
 </sst>
 </file>
@@ -229,53 +333,59 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="6">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Liberation Sans;Arial"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
-      <name val="Liberation Sans;Arial"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
     <font>
+      <name val="FreeSans"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -283,369 +393,741 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A11" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B17" activeCellId="0" pane="topLeft" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.43367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.16836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="3" width="6.43367346938776"/>
+    <col customWidth="1" max="2" min="2" style="3" width="9.16836734693878"/>
+    <col customWidth="1" max="1025" min="3" style="3" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="3" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row customHeight="1" s="3" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="n">
         <v>70668</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="n">
         <v>43483</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c s="0" r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="4" ht="30.55" spans="1:3">
+      <c s="0" r="A4" t="n">
         <v>13275</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c s="0" r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="3" r="5" ht="12.8" spans="1:3">
+      <c s="1" r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c s="2" r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row customHeight="1" s="3" r="6" ht="12.8" spans="1:3">
+      <c s="1" r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c s="0" r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row customHeight="1" s="3" r="7" ht="12.8" spans="1:3">
+      <c s="1" r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c s="2" r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row customHeight="1" s="3" r="8" ht="12.8" spans="1:3">
+      <c s="1" r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c s="2" r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row customHeight="1" s="3" r="9" ht="12.8" spans="1:3">
+      <c s="1" r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c s="2" r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row customHeight="1" s="3" r="10" ht="12.8" spans="1:3">
+      <c s="1" r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c s="2" r="B10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row customHeight="1" s="3" r="11" ht="12.8" spans="1:3">
+      <c s="1" r="A11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c s="2" r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row customHeight="1" s="3" r="12" ht="12.8" spans="1:3">
+      <c s="1" r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c s="2" r="B12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row customHeight="1" s="3" r="13" ht="12.8" spans="1:3">
+      <c s="1" r="A13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c s="2" r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row customHeight="1" s="3" r="14" ht="12.8" spans="1:3">
+      <c s="1" r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c s="2" r="B14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row customHeight="1" s="3" r="15" ht="12.8" spans="1:3">
+      <c s="1" r="A15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c s="2" r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row customHeight="1" s="3" r="16" ht="12.8" spans="1:3">
+      <c s="1" r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c s="2" r="B16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row customHeight="1" s="3" r="17" ht="12.8" spans="1:3">
+      <c s="1" r="A17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c s="2" r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row customHeight="1" s="3" r="18" ht="12.8" spans="1:3">
+      <c s="1" r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c s="2" r="B18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row customHeight="1" s="3" r="19" ht="12.8" spans="1:3">
+      <c s="1" r="A19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c s="2" r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row customHeight="1" s="3" r="20" ht="12.8" spans="1:3">
+      <c s="1" r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c s="2" r="B20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row customHeight="1" s="3" r="21" ht="12.8" spans="1:3">
+      <c s="1" r="A21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c s="2" r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row customHeight="1" s="3" r="22" ht="12.8" spans="1:3">
+      <c s="1" r="A22" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c s="2" r="B22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="2" t="s">
+    </row>
+    <row customHeight="1" s="3" r="23" ht="12.8" spans="1:3">
+      <c s="1" r="A23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c s="2" r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+    <row customHeight="1" s="3" r="24" ht="12.8" spans="1:3">
+      <c s="1" r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c s="2" r="B24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row customHeight="1" s="3" r="25" ht="12.8" spans="1:3">
+      <c s="1" r="A25" t="s">
         <v>68</v>
       </c>
+      <c s="2" r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="26" ht="12.8" spans="1:3">
+      <c s="1" r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c s="2" r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="27" ht="12.8" spans="1:3">
+      <c s="1" r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c s="2" r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="28" ht="12.8" spans="1:3">
+      <c s="1" r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="29" ht="12.8" spans="1:3">
+      <c s="1" r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c s="2" r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="30" ht="12.8" spans="1:3">
+      <c s="1" r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c s="2" r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="31" ht="12.8" spans="1:3">
+      <c s="1" r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c s="2" r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="32" ht="12.8" spans="1:3">
+      <c s="1" r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c s="2" r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="33" ht="12.8" spans="1:3">
+      <c s="1" r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c s="2" r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="34" ht="12.8" spans="1:3">
+      <c s="1" r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c s="2" r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="35" ht="12.8" spans="1:3">
+      <c s="1" r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c s="2" r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" s="3" r="36" ht="12.8" spans="1:3">
+      <c s="1" r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c s="2" r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/abortion_contra.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/abortion_contra.xlsx
@@ -25,19 +25,19 @@
     <t>There is only one situation in which I believe abortion is okay.  If a mother is incapable of giving birth to the child, and attempting it might kill her, I believe abortion is sad, but necessary.  Otherwise, no one has the right to kill a child, born or unborn.</t>
   </si>
   <si>
-    <t>262,0.33,12.63,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.04,0.1</t>
+    <t>16.33,5.35,1.02,1.05,0.97,0.33,12.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.24,0.02,0.02,0.06,0.02,0.0,0.1,0.1,5.75</t>
   </si>
   <si>
     <t>for everyone who is talking about RAPE in this subject let me ask you one thing!!!! if you got in a huge fight with someone and ended up breaking your hand or arm... would you cut it off just because it would REMIND you of that expirience???  if your actualy SANE you would say no and if you say yes you need to see a Physiatrist!!!!</t>
   </si>
   <si>
-    <t>333,0.25,10.74,0.0,0.05,3.5,0.0,0.05,0.0,0.0,0.05,0.05,0.04,0.0</t>
+    <t>16.5,5.05,1.37,1.4,0.98,0.25,10.74,0.0,0.05,3.5,0,0,0.0,0.05,0.0,0.17,0.03,0.2,0.02,0.02,0.18,0.0,0.0,0.0,0.0,1.69</t>
   </si>
   <si>
     <t>The government has no place to tell a woman what she can do with her own body, ever."  The government DOES have that right.  1) a woman cannot legally prostitute herself in many states  2) a woman cannot take illicit drugs into her own body  3) a woman cannot use her body to murder others  4) a woman cannot use her body to steal  5) a woman cannot display her naked body in public  there are many others. Men can also not do these things.  The government tells us what to do with our bodies ALL THE TIME. This is no different.</t>
   </si>
   <si>
-    <t>528,0.17,11.4,0.0,0.0,1.0,0.0,0.09,0.0,0.25,0.2,0.2,0.08,0.0</t>
+    <t>17.0,5.18,2.12,2.1,1.01,0.17,11.4,0.0,0.0,1.0,5,0,0.0,0.09,0.0,0.23,0.06,0.16,0.03,0.03,0.09,0.02,0.05,0.0,0.0,3.28</t>
   </si>
   <si>
     <t>13276</t>
@@ -46,7 +46,7 @@
     <t>we did not create the baby, we are not the ones who gave it life, why should we be the ones who put it to death, we have no authority to do such a thing.</t>
   </si>
   <si>
-    <t>153,0.0,8.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.1,0.0,0.0</t>
+    <t>35.0,4.37,0.73,0.35,2.08,0.0,8.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.29,0.06,0.06,0.17,0.0,0.0,0.0,0.0,7.0</t>
   </si>
   <si>
     <t>13269</t>
@@ -55,7 +55,7 @@
     <t>is personhood absolute or is it predicated upon position?  If a premature baby is lying in an incubator or, let's say for the sake of argument, a 5 gallon pail, it is illegal to kill it. Why does the situation change so drastically just because the child is inside the womb?</t>
   </si>
   <si>
-    <t>274,0.33,13.35,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.19,0.2</t>
+    <t>17.0,5.37,1.06,1.05,1.01,0.33,13.35,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.29,0.06,0.2,0.06,0.06,0.04,0.04,0.05,0.2,0.2,3.75</t>
   </si>
   <si>
     <t>59260</t>
@@ -64,7 +64,7 @@
     <t>when people condemned consensual-cannibalism in africa, did they think of these people's right to their bodies? no. why should abortion be any different?</t>
   </si>
   <si>
-    <t>153,0.0,13.31,0.0,0.04,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.04,0.0</t>
+    <t>7.67,6.65,0.48,1.05,0.46,0.0,13.31,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.22,0.04,0.17,0.04,0.04,0.09,0.0,0.0,0.0,0.0,5.5</t>
   </si>
   <si>
     <t>30426</t>
@@ -73,7 +73,7 @@
     <t>if a woman gets raped and is left with the chil, she should put it up for adoption. if someone murders a pregnant women, they get charged for killing the woman and the fetus. People have the stupid excuss that it's not a baby, it's a fetus. if you look it up in the dictionary, it says that a fetus is an unborn baby.</t>
   </si>
   <si>
-    <t>317,0.0,10.37,1.0,0.08,1.0,0.0,0.0,0.0,0.3,0.55,0.55,0.0,0.0</t>
+    <t>16.0,4.95,1.33,1.4,0.95,0.0,10.37,1.0,0.08,1.0,0,0,0.0,0.0,0.0,0.19,0.05,0.22,0.02,0.02,0.09,0.02,0.05,0.0,0.0,6.61</t>
   </si>
   <si>
     <t>13263</t>
@@ -82,7 +82,7 @@
     <t>Not to be glib, but are you stating that we should look to the government to assist us with our belief system.  Ever read T. Hobbes...?</t>
   </si>
   <si>
-    <t>135,0.5,11.23,0.0,0.0,3.0,0.0,0.04,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>13.0,5.19,0.54,0.7,0.77,0.5,11.23,0.0,0.0,3.0,0,0,0.0,0.04,0.0,0.23,0.0,0.27,0.04,0.04,0.15,0.04,0.0,0.0,0.0,1.88</t>
   </si>
   <si>
     <t>28923</t>
@@ -91,7 +91,7 @@
     <t>If someone is raped and ends up pregnant, they should have the choice to get an abortion or not. If people are being irresponsible and have unprotected sex, they should be held accountable for their actions. Have the baby and put them up for adoption. Otherwise people are going to abuse their power to chose and will be killing babies because they are too lazy or ignorant to use protection.</t>
   </si>
   <si>
-    <t>392,0.25,14.93,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.45,0.4,0.08,0.2</t>
+    <t>17.5,5.6,1.46,1.4,1.04,0.25,14.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.01,0.01,0.09,0.06,0.1,0.2,0.2,5.05</t>
   </si>
   <si>
     <t>13268</t>
@@ -100,7 +100,7 @@
     <t>I argue for the rights of the child, who deserves the same right to life as the mother.</t>
   </si>
   <si>
-    <t>87,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>18.0,4.83,0.37,0.35,1.07,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.11,0.0,0.0,0.06,0.0,0.0,0.0,0.0,5.33</t>
   </si>
   <si>
     <t>54474</t>
@@ -109,7 +109,7 @@
     <t>A growing embryo is considered human with the heartbeats initiating as early as 21st day of conception. So what if we cannot see the human form, it does have the potential to gain one.  Around 60% of abortions are performed on never married women. Why can't women give the baby up for adoption instead, even if she is raped. If your raped does that give you the right to got out and kill someone?</t>
   </si>
   <si>
-    <t>396,0.0,12.54,0.0,0.0,1.0,0.0,0.01,0.0,0.2,0.35,0.35,0.08,0.0</t>
+    <t>14.8,5.35,1.54,1.75,0.88,0.0,12.54,0.0,0.0,1.0,4,1,0.0,0.01,0.0,0.18,0.08,0.24,0.07,0.07,0.07,0.05,0.05,0.0,0.0,5.19</t>
   </si>
   <si>
     <t>13277</t>
@@ -118,7 +118,7 @@
     <t>the one whom bestows life, is the one whom bestows death.</t>
   </si>
   <si>
-    <t>57,0.0,10.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.04,0.1</t>
+    <t>11.0,5.18,0.23,0.35,0.65,0.0,10.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.0,0.27,0.0,0.0,0.0,0.0,0.0,0.1,0.1,5.33</t>
   </si>
   <si>
     <t>76937</t>
@@ -127,7 +127,7 @@
     <t>I choose life. Keeping the law pro-choice is allowing women to murder their own unborn human child.</t>
   </si>
   <si>
-    <t>99,0.0,12.1,0.0,0.06,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
+    <t>8.5,5.82,0.35,0.7,0.5,0.0,12.1,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.35,0.18,0.29,0.0,0.0,0.12,0.0,0.0,0.0,0.0,5.09</t>
   </si>
   <si>
     <t>13300</t>
@@ -136,7 +136,7 @@
     <t>I'm pro-life based on one major fact.... abortion being used the way it is today.. like a last minute form of birth control. If your too stupid to wear protection, get on the pill, just give the baby up, there are thousands of people who can't have children who'd love to have it.</t>
   </si>
   <si>
-    <t>280,0.0,11.52,1.0,0.02,4.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>26.5,5.28,1.1,0.7,1.57,0.0,11.52,1.0,0.02,4.0,0,0,0.0,0.0,0.0,0.23,0.09,0.25,0.04,0.04,0.04,0.02,0.0,0.0,0.0,3.9</t>
   </si>
   <si>
     <t>13258</t>
@@ -145,7 +145,7 @@
     <t>That situation is very rare and can usually be countered with a contraceptive drug if the woman seeks medical attention after the assault.</t>
   </si>
   <si>
-    <t>138,0.0,17.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.04,0.0</t>
+    <t>23.0,6.0,0.48,0.35,1.37,0.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.13,0.17,0.09,0.09,0.0,0.04,0.05,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>13256</t>
@@ -154,7 +154,7 @@
     <t>I choose life.  Reagan once said something like this.  Notice that everyone who is pro choice has been born.</t>
   </si>
   <si>
-    <t>108,0.0,11.4,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.04,0.0</t>
+    <t>6.33,5.68,0.4,1.05,0.38,0.0,11.4,0.0,0.0,1.0,0,0,0.0,0.0,16.67,0.21,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.57</t>
   </si>
   <si>
     <t>54558</t>
@@ -163,7 +163,7 @@
     <t>No matter what circumstance a woman is in SHE got herself pregnant! When rape occurs why is it the poor, defenceless baby who gets no choice and dies? The baby is innocent, yes it wasnt the mothers fault but why is she more important than a child?  Women have become selfish where there bodies are concerned. They believe they have the right to get pregnant and then get rid of the baby because they feel like it and made a mistake. These are childrens lives we are talking about.</t>
   </si>
   <si>
-    <t>480,0.33,13.32,0.0,0.02,1.0,0.0,0.01,0.0,0.25,0.45,0.45,0.08,0.1</t>
+    <t>14.83,5.39,1.85,2.1,0.88,0.33,13.32,0.0,0.02,1.0,0,0,0.0,0.01,0.0,0.16,0.08,0.26,0.02,0.02,0.1,0.02,0.0,0.1,0.1,4.85</t>
   </si>
   <si>
     <t>34503</t>
@@ -172,7 +172,7 @@
     <t>having some choices are good. but if you were in charge of all the choices in your life, the world would be in total chaos. i have always been pro life. and yes i do believe abortions should be illegal.</t>
   </si>
   <si>
-    <t>202,0.25,10.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>10.0,5.05,0.83,1.4,0.59,0.25,10.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.23,0.03,0.03,0.05,0.0,0.0,0.0,0.0,4.2</t>
   </si>
   <si>
     <t>13264</t>
@@ -181,7 +181,7 @@
     <t>Don't kid yourself: the vast majority of abortions in this country are for reasons of convenience. If I was allowed to kill someone anytime they were inconvenient to me, I would be leaving a trail of bodies behind me when I walked down the street.</t>
   </si>
   <si>
-    <t>247,0.0,14.24,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.04,0.0</t>
+    <t>22.5,5.49,0.94,0.7,1.34,0.0,14.24,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.04,0.04,0.11,0.04,0.1,0.0,0.0,3.31</t>
   </si>
   <si>
     <t>13260</t>
@@ -190,7 +190,7 @@
     <t>There are tons of ways to not get pregnant. There are condoms (99% effective) for men and women, there are morning-after pills (75% effective), the patch, pill, and other forms of ways not to get pregnant. It's the woman's fault that she didn't do it.  And maybe instead of Pro-choice vs. Pro-life, they (i don't know who "they" is) should have pro-life, but with exceptions (i.e. women that get raped) so that it's fair all-around.</t>
   </si>
   <si>
-    <t>432,0.2,11.18,0.0,0.09,1.4,0.0,0.03,0.0,0.15,0.15,0.15,0.04,0.0</t>
+    <t>15.0,5.76,1.56,1.75,0.89,0.2,11.18,0.0,0.09,1.4,4,2,0.0,0.03,0.0,0.21,0.07,0.21,0.07,0.07,0.03,0.01,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>80248</t>
@@ -199,7 +199,7 @@
     <t>I am Pro-Life,  Here is a question for anyone who is Pro-Choice: Is the baby in the mother's stomach living and if not how do you know?</t>
   </si>
   <si>
-    <t>135,0.0,8.65,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>27.0,5.0,0.56,0.35,1.6,0.0,8.65,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.22,0.07,0.07,0.07,0.0,0.0,0.0,0.0,4.83</t>
   </si>
   <si>
     <t>13259</t>
@@ -208,7 +208,7 @@
     <t>Nobody has the right to tell you what to do with your body, but if that which you are trying to rid off moves away at the first sign of pain, without you feeling it, then "that" is no longer yours, since it feels outside your own.</t>
   </si>
   <si>
-    <t>230,1.0,11.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>47.0,4.89,0.98,0.35,2.79,1.0,11.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.04,0.19,0.09,0.09,0.13,0.0,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>13280</t>
@@ -217,7 +217,7 @@
     <t>i do not see any difference in killing an embroyo or a 40 year old person. Murder....is murder.</t>
   </si>
   <si>
-    <t>95,0.0,9.77,0.0,0.11,3.0,0.0,0.06,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>9.0,5.28,0.37,0.7,0.53,0.0,9.77,0.0,0.11,3.0,2,0,0.0,0.06,0.0,0.22,0.06,0.17,0.06,0.06,0.0,0.06,0.05,0.0,0.0,3.43</t>
   </si>
   <si>
     <t>75146</t>
@@ -226,7 +226,7 @@
     <t>what we are dealing with is indirect murder if a women decides to abort a child she just had killed a life that may have been a big contribution to society.</t>
   </si>
   <si>
-    <t>156,0.0,12.64,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>31.0,5.03,0.65,0.35,1.84,0.0,12.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.32,0.03,0.03,0.06,0.03,0.05,0.0,0.0,5.25</t>
   </si>
   <si>
     <t>1148434436</t>
@@ -235,7 +235,7 @@
     <t>What i dont undertsand is how people rationalize taking life it just doesnt make any sense... idc the situation in america how is killing leagal?</t>
   </si>
   <si>
-    <t>145,0.0,16.18,0.0,0.2,4.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>25.0,5.8,0.52,0.35,1.48,0.0,16.18,0.0,0.2,4.0,0,0,0.0,0.0,0.0,0.24,0.08,0.36,0.04,0.04,0.04,0.04,0.05,0.0,0.0,3.82</t>
   </si>
   <si>
     <t>75040</t>
@@ -244,7 +244,7 @@
     <t>My one question...  Why is it we argue for the "right" to kill the unborn when the government is taking away our real rights?</t>
   </si>
   <si>
-    <t>125,0.0,11.88,0.0,0.0,4.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>24.0,5.21,0.5,0.35,1.42,0.0,11.88,0.0,0.0,4.0,0,0,0.0,0.0,0.0,0.21,0.04,0.21,0.04,0.04,0.17,0.04,0.0,0.0,0.0,4.5</t>
   </si>
   <si>
     <t>13279</t>
@@ -253,7 +253,7 @@
     <t>In Nebraska, it's legal to have an abortion by killing the baby while it's coming out of the womb. How can you argue against that?</t>
   </si>
   <si>
-    <t>130,0.0,10.76,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>12.5,5.2,0.52,0.7,0.74,0.0,10.76,0.0,0.0,1.0,0,0,0.0,0.0,16.67,0.12,0.12,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,7.13</t>
   </si>
   <si>
     <t>33181</t>
@@ -262,7 +262,7 @@
     <t>One word: Adoption  There is absolutley no reason to receive an abortion when you could continue through to birth and then put the child up for adoption.  This is a commonly ignored fact in the abortion debate. But I think it is by far the best choice.</t>
   </si>
   <si>
-    <t>252,0.33,13.09,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
+    <t>15.67,5.36,0.98,1.05,0.93,0.33,13.09,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.19,0.06,0.06,0.06,0.0,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>13270</t>
@@ -271,7 +271,7 @@
     <t>If a women is raped" is a good argument. However why would you punish an innocent baby with the death penalty for some other man's crime. If the women does not want the child she could give it up for adoption. I just dont understand why you would kill the baby, the emotional trauma would happen without the baby as well.</t>
   </si>
   <si>
-    <t>321,0.25,12.43,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
+    <t>15.25,5.26,1.27,1.4,0.91,0.25,12.43,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.1,0.15,0.05,0.05,0.08,0.02,0.05,0.0,0.0,5.89</t>
   </si>
   <si>
     <t>34485</t>
@@ -280,7 +280,7 @@
     <t>there isnt an excuse in the world to kill a fetus, a baby, a child, anyone.  if the woman was raped, it most certainly is Not the baby's fault. the woman with the baby whoever they are should speak For the baby, and know that the baby would want to live.</t>
   </si>
   <si>
-    <t>254,0.0,10.47,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>17.0,4.98,1.06,1.05,1.01,0.0,10.47,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.22,0.06,0.06,0.04,0.0,0.0,0.0,0.0,7.73</t>
   </si>
   <si>
     <t>13267</t>
@@ -289,7 +289,7 @@
     <t>You are mixing topics thereby creating fallacy in your argument. The debate is not to determine under what circumstances may murder be morally acceptable, rather, the legal (some may say moral) foundation on which one can state that an individual has the right to terminate pregnancy.  In addition, you may want to brush up on your etymology and vary your sources rather than simply paraphrasing definitions that fit your point of view.</t>
   </si>
   <si>
-    <t>436,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.12,0.3</t>
+    <t>24.0,6.06,1.5,1.05,1.42,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.21,0.07,0.07,0.08,0.08,0.25,0.3,0.3,1.55</t>
   </si>
   <si>
     <t>30319</t>
@@ -298,7 +298,7 @@
     <t>Statistics prove that less than 1% of women who are raped get pregnant because of the adrenalin rush. We have no right to take an unborn child's life. There are ways to avoid the situation of abortion. The woman can have the baby and give it up for adoption or raise it as their own because the woman is the still the child's biological mother. There are thousands of people on the waiting list for another baby to add to their family. DO NOT let anyone tell you otherwise because they obviously havn't been in the situation of adoption or abortion.</t>
   </si>
   <si>
-    <t>549,0.5,13.76,0.0,0.01,1.0,0.0,0.03,0.0,0.45,0.65,0.65,0.04,0.0</t>
+    <t>16.83,5.44,2.1,2.1,1.0,0.5,13.76,0.0,0.01,1.0,1,1,0.0,0.03,0.0,0.21,0.07,0.19,0.02,0.02,0.07,0.02,0.05,0.0,0.0,5.65</t>
   </si>
   <si>
     <t>13303</t>
@@ -307,7 +307,7 @@
     <t>There should be no argument in this really...whatever way yu see a fetus...its still a living form that has been created in a very intimate way... you shouldn't be changing what mothernature or God or fate or whatever has decided for you...and if you didn;t wannna get preggo in the first place...don't have sex or use protection.  Yeh there are some women that get raped and it's very unfortunate but they should give the child up for adoption. It's not the child's fault that it was created. So why should the goring being have to pay the ultimate price of it's life?</t>
   </si>
   <si>
-    <t>569,0.25,12.71,0.0,0.1,4.75,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>25.5,5.58,2.12,1.4,1.51,0.25,12.71,0.0,0.1,4.75,0,0,0.0,0.0,0.0,0.18,0.07,0.22,0.05,0.05,0.04,0.02,0.05,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>13257</t>
@@ -316,7 +316,7 @@
     <t>Actually the government does tell women what they can and can't do with their bodies.  It's illegal to commit suicide.  If a person is caught trying to hack themselves to peices they could be placed in a mental institute.  So the government actually does limit what a woman can do with her body</t>
   </si>
   <si>
-    <t>294,0.0,13.36,0.0,0.02,0.75,0.0,0.0,0.0,0.25,0.2,0.2,0.0,0.0</t>
+    <t>13.25,5.55,1.1,1.4,0.79,0.0,13.36,0.0,0.02,0.75,0,0,0.0,0.0,0.0,0.21,0.02,0.26,0.04,0.04,0.09,0.02,0.0,0.0,0.0,4.21</t>
   </si>
   <si>
     <t>59722</t>
@@ -325,7 +325,7 @@
     <t>Well "The Champ" It is not the Woman's body we are talking about, it is a new life. And if you are going to be irresponsible dont let a new life die for it!</t>
   </si>
   <si>
-    <t>156,0.0,8.23,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.04,0.1</t>
+    <t>17.0,4.59,0.71,0.7,1.01,0.0,8.23,0.0,0.03,1.0,0,0,0.0,0.0,16.67,0.15,0.12,0.24,0.09,0.09,0.12,0.03,0.05,0.1,0.1,4.5</t>
   </si>
 </sst>
 </file>
